--- a/Output/TotalCourse.xlsx
+++ b/Output/TotalCourse.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="17">
   <si>
     <t>COURSE ARE :</t>
   </si>
@@ -481,10 +481,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Output/TotalCourse.xlsx
+++ b/Output/TotalCourse.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="17">
   <si>
     <t>COURSE ARE :</t>
   </si>
@@ -459,7 +459,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
@@ -481,10 +481,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
